--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_6_matched_error_tables_T55.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_6_matched_error_tables_T55.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1226637301805328</v>
+        <v>0.2159243579598205</v>
       </c>
       <c r="C2">
-        <v>1.447612950861882</v>
+        <v>1.480648614064745</v>
       </c>
       <c r="D2">
-        <v>8.01599651201207</v>
+        <v>7.866542337271503</v>
       </c>
       <c r="E2">
-        <v>2.831253523090447</v>
+        <v>2.804735698291642</v>
       </c>
       <c r="F2">
-        <v>2.898447451201381</v>
+        <v>2.862218738072543</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01992102558575391</v>
+        <v>0.4781889706685686</v>
       </c>
       <c r="C3">
-        <v>1.545195071321561</v>
+        <v>1.930830918988384</v>
       </c>
       <c r="D3">
-        <v>10.25296049788595</v>
+        <v>14.19320121540668</v>
       </c>
       <c r="E3">
-        <v>3.202024437427976</v>
+        <v>3.767386523228892</v>
       </c>
       <c r="F3">
-        <v>3.285144177021213</v>
+        <v>3.829198786942838</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.4876989192426175</v>
+        <v>-0.8896996621642435</v>
       </c>
       <c r="C4">
-        <v>1.070478054441477</v>
+        <v>1.44333984060316</v>
       </c>
       <c r="D4">
-        <v>4.352322569957472</v>
+        <v>7.770801555157116</v>
       </c>
       <c r="E4">
-        <v>2.086222080689751</v>
+        <v>2.787615747400835</v>
       </c>
       <c r="F4">
-        <v>2.083999551455673</v>
+        <v>2.710454626131535</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.04321491387023234</v>
+        <v>-0.06136374880733262</v>
       </c>
       <c r="C5">
-        <v>0.5348428353552614</v>
+        <v>0.5271165165299917</v>
       </c>
       <c r="D5">
-        <v>0.6057870092626018</v>
+        <v>0.5818285981069827</v>
       </c>
       <c r="E5">
-        <v>0.7783232036002793</v>
+        <v>0.7627768993008261</v>
       </c>
       <c r="F5">
-        <v>0.7996525219145179</v>
+        <v>0.781138722931912</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02698321388678535</v>
+        <v>0.0722674141249729</v>
       </c>
       <c r="C6">
-        <v>0.7127126762762954</v>
+        <v>0.7708690881678825</v>
       </c>
       <c r="D6">
-        <v>1.125883193842302</v>
+        <v>1.235330744220078</v>
       </c>
       <c r="E6">
-        <v>1.061076431668474</v>
+        <v>1.111454337442649</v>
       </c>
       <c r="F6">
-        <v>1.093378842744502</v>
+        <v>1.141256968830313</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1471245695264108</v>
+        <v>-0.2373232288292771</v>
       </c>
       <c r="C7">
-        <v>0.5998554784837102</v>
+        <v>0.6634229078479119</v>
       </c>
       <c r="D7">
-        <v>0.7855588171422344</v>
+        <v>0.9054721940614733</v>
       </c>
       <c r="E7">
-        <v>0.8863175599875218</v>
+        <v>0.9515630268466053</v>
       </c>
       <c r="F7">
-        <v>0.9026852848009449</v>
+        <v>0.9498535395335904</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04086983380230542</v>
+        <v>-0.07796654029619081</v>
       </c>
       <c r="C8">
-        <v>0.3836246115212893</v>
+        <v>0.4741613559315459</v>
       </c>
       <c r="D8">
-        <v>0.2577136119972258</v>
+        <v>0.4427616721667638</v>
       </c>
       <c r="E8">
-        <v>0.5076550127766156</v>
+        <v>0.6654033905585122</v>
       </c>
       <c r="F8">
-        <v>0.5251084694943269</v>
+        <v>0.6840135421286363</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
